--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2124044.193161891</v>
+        <v>2118322.581194006</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.73669035144027</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>233.9260066952773</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.66971055410654</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.0036675346621</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.5637353995019</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.5499088748946</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>143.7459688030384</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>96.95377689311815</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>13.72101765531085</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>7.906645607737795</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>129.5765970421783</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.313660226920547</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>54.32369167158421</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>217.0914199928473</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.0958197334889</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320705</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492261</v>
+        <v>74.75769145492451</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>119.9087898409926</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785999</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.69473660442755</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.4330611973848</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>11.59100715283834</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>112.406614410047</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.11446803362952</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>267.2493845433995</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>16.29480620710811</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>137.2338132090243</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>137.8998463176353</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.450628940881</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.48811200047</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1272.647566368491</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>861.6616615788832</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>443.6978534770701</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1645.450628940881</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>338.1849863041093</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>714.3211957679428</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>566.1745372021267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2537.549426841796</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="V5" t="n">
-        <v>2538.520668821946</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="W5" t="n">
-        <v>2185.752013551832</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4664,25 +4664,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1894.539591564834</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C8" t="n">
-        <v>1894.539591564834</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1520.080031287786</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1134.291778689542</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>723.3058738999346</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>305.3420657981214</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4843,13 +4843,13 @@
         <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1894.539591564834</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1894.539591564834</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>714.2693704131909</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>714.2693704131909</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>714.2693704131909</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5044,19 +5044,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P11" t="n">
         <v>4470.748294107237</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.822894557956</v>
+        <v>814.7290857654818</v>
       </c>
       <c r="C13" t="n">
-        <v>192.8867116300491</v>
+        <v>645.792902837575</v>
       </c>
       <c r="D13" t="n">
-        <v>192.8867116300491</v>
+        <v>495.6762634252392</v>
       </c>
       <c r="E13" t="n">
-        <v>192.8867116300491</v>
+        <v>347.7631698428461</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>200.8732223449357</v>
       </c>
       <c r="G13" t="n">
         <v>192.8867116300491</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1825.458014546947</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1536.355147672591</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>1281.670659466704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W13" t="n">
-        <v>992.2534894297432</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X13" t="n">
-        <v>764.2639385317259</v>
+        <v>1217.170129739252</v>
       </c>
       <c r="Y13" t="n">
-        <v>543.4713593881958</v>
+        <v>996.3775505957216</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3950.852187039507</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4345.626553396685</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,28 +5357,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>680.9693001177147</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0331171898079</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D16" t="n">
-        <v>361.9164777774721</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E16" t="n">
-        <v>361.9164777774721</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F16" t="n">
-        <v>361.9164777774721</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>194.2136411521911</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,49 +5439,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442026</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482926987</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862227</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689054</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.06050925858</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.06050925858</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1198.376021052693</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W16" t="n">
-        <v>908.9588510157321</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X16" t="n">
-        <v>680.9693001177147</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y16" t="n">
-        <v>680.9693001177147</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="17">
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>854.4007383484569</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>854.4007383484569</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>704.2840989361212</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>854.4007383484569</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>854.4007383484569</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.4007383484569</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>1770.231306037952</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3384.235206686049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>3215.299023758142</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>3065.182384345806</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4778.051722419721</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4778.051722419721</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>4558.767459800683</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>4304.082971594797</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>4014.665801557836</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3786.676250659818</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3565.883671516288</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5992,43 +5992,43 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1404.507041060941</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2383.05734389077</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3362.809616117416</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996753</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6083,25 +6083,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.495701195955</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>867.5595182680486</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>717.4428788557128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>569.5297852733197</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104703</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1956.343466104703</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>1666.926296067742</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>1438.936745169725</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1218.144166026195</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427191</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6320,13 +6320,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,7 +6335,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6344,7 +6344,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699243</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>3730.981410493357</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W28" t="n">
-        <v>3441.564240456396</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X28" t="n">
-        <v>3213.574689558379</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y28" t="n">
-        <v>2992.782110414849</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,34 +6448,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.617028429936</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>2812.369300656582</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
         <v>3692.333950986037</v>
@@ -6505,10 +6505,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367487</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.08900508636</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.154595425109</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419653</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279156</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917023</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318561</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789525</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102191</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324506</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878961</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297016</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012235</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505715</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.82648218357</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317986</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086243</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358042</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.517670152509</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387555</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>946.9795471160913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>778.0433641881845</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>627.9267247758487</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>627.9267247758487</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862235</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862235</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862235</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987878</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1577.410141987878</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1577.410141987878</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1349.420591089861</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1128.628011946331</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>416.360692471045</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608913</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814246</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644074</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.1112734427657</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>181.1112734427657</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>181.1112734427657</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>181.1112734427657</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>181.1112734427657</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>181.1112734427657</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>181.1112734427657</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.6435265574</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145529</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X34" t="n">
-        <v>583.5523174165355</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.7597382730054</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,64 +6925,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972662</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,64 +6992,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>590.1253288168946</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C37" t="n">
-        <v>421.1891458889877</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D37" t="n">
-        <v>421.1891458889877</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E37" t="n">
-        <v>421.1891458889877</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1752.970974104609</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.657581931529</v>
+        <v>1752.970974104609</v>
       </c>
       <c r="U37" t="n">
-        <v>1764.657581931529</v>
+        <v>1463.868107230252</v>
       </c>
       <c r="V37" t="n">
-        <v>1509.973093725642</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="W37" t="n">
-        <v>1220.555923688682</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="X37" t="n">
-        <v>992.5663727906644</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="Y37" t="n">
-        <v>771.7737936471343</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="38">
@@ -7171,43 +7171,43 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871642</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318588</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827576</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.576850674229</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V40" t="n">
-        <v>1479.892362468342</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.475192431382</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X40" t="n">
-        <v>1190.475192431382</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>1190.475192431382</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846823</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518747</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.23671557753</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.0071782166605</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C43" t="n">
-        <v>381.0709952887536</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D43" t="n">
-        <v>381.0709952887536</v>
+        <v>523.2661352466724</v>
       </c>
       <c r="E43" t="n">
-        <v>381.0709952887536</v>
+        <v>523.2661352466724</v>
       </c>
       <c r="F43" t="n">
-        <v>234.1810477908432</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>234.1810477908432</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582079</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>770.7997573601906</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>550.0071782166605</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7651,16 +7651,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7836,22 +7836,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1403.598192442839</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1148.913704236952</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>859.4965341999911</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>631.5069833019737</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>410.7144041584436</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8692,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>60.66917680434173</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>288.0478149561034</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9640,28 +9640,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>169.5026663584982</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>285.7011105564214</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>258.6211785616936</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>232.1124963760976</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>139.3563597571364</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>133.2530576400254</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277305</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>29.618822257921</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225792135</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>158.1191626512904</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>89.97235223399085</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>30.94638747377566</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4413546874002</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>232.1993066650068</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>69.12041821276557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.32522828944235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.14213605696665</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270147</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>25.51225818193865</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>11.65768380541057</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>2.335964134057093</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>133.8300408700929</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>77.3624109213949</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>110.7175121483078</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>18.96245366221342</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>129.1262418158231</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7.521201705296448</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>148.3119918879776</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854698.4465300767</v>
+        <v>854698.4465300766</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854698.4465300767</v>
+        <v>854698.4465300764</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854698.4465300767</v>
+        <v>854698.4465300766</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854698.4465300767</v>
+        <v>854698.4465300766</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854698.4465300764</v>
+        <v>854698.4465300766</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="F2" t="n">
         <v>555914.5016417765</v>
-      </c>
-      <c r="F2" t="n">
-        <v>555914.5016417762</v>
       </c>
       <c r="G2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="H2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="I2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="L2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="M2" t="n">
         <v>555914.5016417765</v>
-      </c>
-      <c r="M2" t="n">
-        <v>555914.5016417764</v>
       </c>
       <c r="N2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="O2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="P2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417763</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709184</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709192</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290304.3147653848</v>
+        <v>-290304.3147653847</v>
       </c>
       <c r="C6" t="n">
-        <v>299663.5644491593</v>
+        <v>299663.5644491597</v>
       </c>
       <c r="D6" t="n">
-        <v>299663.5644491597</v>
+        <v>299663.5644491594</v>
       </c>
       <c r="E6" t="n">
-        <v>-289466.0386024356</v>
+        <v>-290137.9935046936</v>
       </c>
       <c r="F6" t="n">
-        <v>437911.3753909707</v>
+        <v>437239.4204887131</v>
       </c>
       <c r="G6" t="n">
-        <v>437911.3753909711</v>
+        <v>437239.4204887131</v>
       </c>
       <c r="H6" t="n">
-        <v>437911.3753909708</v>
+        <v>437239.420488713</v>
       </c>
       <c r="I6" t="n">
-        <v>437911.375390971</v>
+        <v>437239.4204887131</v>
       </c>
       <c r="J6" t="n">
-        <v>261488.1561983781</v>
+        <v>260816.20129612</v>
       </c>
       <c r="K6" t="n">
-        <v>437911.3753909708</v>
+        <v>437239.420488713</v>
       </c>
       <c r="L6" t="n">
-        <v>437911.3753909711</v>
+        <v>437239.4204887131</v>
       </c>
       <c r="M6" t="n">
-        <v>308269.0605520261</v>
+        <v>307597.1056497682</v>
       </c>
       <c r="N6" t="n">
-        <v>437911.375390971</v>
+        <v>437239.420488713</v>
       </c>
       <c r="O6" t="n">
-        <v>437911.3753909711</v>
+        <v>437239.4204887132</v>
       </c>
       <c r="P6" t="n">
-        <v>437911.3753909708</v>
+        <v>437239.4204887129</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26761,10 +26761,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>288.9463512692427</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89.99676606907983</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.45303940080776</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>16.41204527430946</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>225.188523070633</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54869530067504</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.03474447720023</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>210.9370728176445</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>226.968995871239</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>16.68962877639354</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>211.3140878027734</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-9.975939441246163e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002947</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>311.4634816080612</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443158</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>625.0927807508301</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>684.463096775793</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>766.6741794499126</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M29" t="n">
-        <v>771.0336122063242</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>647.4093606453557</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859644</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789738</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>324.0400586087379</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200624</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502533</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118322.581194006</v>
+        <v>2121728.072318455</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>274.7256890747626</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>233.9260066952773</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>397.3721247464855</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.0036675346621</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>126.5499088748946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>96.95377689311815</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.51033041214347</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>7.906645607737795</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.1116106781925</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.5702613493297</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.4746605491556</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.26879610203982</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>12.51806891903095</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>209.5675193320705</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492451</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785999</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>187.4330611973848</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>112.406614410047</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>22.79232392276376</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>184.2382379506632</v>
       </c>
       <c r="U40" t="n">
-        <v>267.2493845433995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>29.74310329855297</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.29480620710811</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>137.8998463176353</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1658.435818966735</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="C2" t="n">
-        <v>1658.435818966735</v>
+        <v>902.8734619622016</v>
       </c>
       <c r="D2" t="n">
-        <v>1658.435818966735</v>
+        <v>902.8734619622016</v>
       </c>
       <c r="E2" t="n">
-        <v>1272.647566368491</v>
+        <v>902.8734619622016</v>
       </c>
       <c r="F2" t="n">
-        <v>861.6616615788832</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>443.6978534770701</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1189.50268270914</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>820.540165768728</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>462.2744671619775</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>462.2744671619775</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>455.328966412774</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2537.549426841796</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2318.914759813859</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2318.914759813859</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.914759813859</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.146104543745</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1592.680346282665</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4664,25 +4664,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934728</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834948</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.345729894537</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.080031287786</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.291778689542</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>723.3058738999346</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>305.3420657981214</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834948</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658945</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>82.74129536798412</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>82.74129536798412</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>82.74129536798412</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>82.74129536798412</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>786.6724891157187</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>814.7290857654818</v>
+        <v>556.371005353728</v>
       </c>
       <c r="C13" t="n">
-        <v>645.792902837575</v>
+        <v>556.371005353728</v>
       </c>
       <c r="D13" t="n">
-        <v>495.6762634252392</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E13" t="n">
-        <v>347.7631698428461</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>200.8732223449357</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1765.321637136833</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1765.321637136833</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1476.218770262476</v>
       </c>
       <c r="V13" t="n">
-        <v>1734.57685067423</v>
+        <v>1476.218770262476</v>
       </c>
       <c r="W13" t="n">
-        <v>1445.159680637269</v>
+        <v>1186.801600225515</v>
       </c>
       <c r="X13" t="n">
-        <v>1217.170129739252</v>
+        <v>958.8120493274979</v>
       </c>
       <c r="Y13" t="n">
-        <v>996.3775505957216</v>
+        <v>738.0194701839678</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5287,43 +5287,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N14" t="n">
-        <v>3070.887536710053</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.852187039507</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>4345.626553396685</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.1920047000667</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C16" t="n">
-        <v>211.1920047000667</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D16" t="n">
-        <v>211.1920047000667</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>211.1920047000667</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>841.6225995718539</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>613.6330486738366</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.8404695303064</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
@@ -5512,37 +5512,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,22 +5624,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,13 +5822,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>964.3709295897388</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871642</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679677</v>
@@ -6016,25 +6016,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,31 +6162,31 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
         <v>498.0020784221642</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6223,55 +6223,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,7 +6335,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6344,13 +6344,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6390,13 +6390,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783413</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413808</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433634</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998333</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216428</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
         <v>2504.619866888352</v>
@@ -6478,16 +6478,16 @@
         <v>3051.398683947134</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986037</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6627,13 +6627,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.12566951853</v>
@@ -6645,13 +6645,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
         <v>1270.093287563029</v>
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522031</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1767.017141662901</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1545.250526232427</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1256.147659358071</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1001.463171152184</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>712.0460011152229</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>484.0564502172056</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.993034926781</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O35" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.7425750505952</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C37" t="n">
-        <v>637.8063921226883</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D37" t="n">
-        <v>487.6897527103525</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>339.7766591279594</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1752.970974104609</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1752.970974104609</v>
+        <v>1843.490459445299</v>
       </c>
       <c r="U37" t="n">
-        <v>1463.868107230252</v>
+        <v>1554.387592570942</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.183619024365</v>
+        <v>1299.703104365055</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.183619024365</v>
+        <v>1010.285934328095</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.183619024365</v>
+        <v>782.2963834300775</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.3910398808349</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7180,46 +7180,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
@@ -7247,10 +7247,10 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2638710736754</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E40" t="n">
         <v>263.2638710736754</v>
@@ -7323,13 +7323,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1770.244235851509</v>
       </c>
       <c r="U40" t="n">
-        <v>1183.111635982423</v>
+        <v>1481.141368977152</v>
       </c>
       <c r="V40" t="n">
-        <v>1183.111635982423</v>
+        <v>1481.141368977152</v>
       </c>
       <c r="W40" t="n">
-        <v>893.6944659454626</v>
+        <v>1191.724198940191</v>
       </c>
       <c r="X40" t="n">
-        <v>665.7049150474453</v>
+        <v>963.7346480421742</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.9123359039152</v>
+        <v>742.942068898644</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7417,46 +7417,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>673.3827746590082</v>
+        <v>361.8228945579559</v>
       </c>
       <c r="C43" t="n">
-        <v>673.3827746590082</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D43" t="n">
-        <v>523.2661352466724</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E43" t="n">
-        <v>523.2661352466724</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.7144041584436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7839,19 +7839,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1403.598192442839</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1148.913704236952</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>859.4965341999911</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>631.5069833019737</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>410.7144041584436</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,22 +8692,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>29.61882225792056</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.66917680434173</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7011105564214</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476822</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>139.3563597571364</v>
+        <v>139.3563597571384</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>295.4822118493972</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>231.5010718068634</v>
       </c>
       <c r="P35" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>11.64153443578746</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11065,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892635</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>258.6211785616921</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>158.1191626512904</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0.6574146532494183</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>89.67655974929814</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>30.94638747377566</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>154.7287521795969</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>16.14213605696665</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270128</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>2.335964134057093</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>77.3624109213949</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>196.7566253534054</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>35.31071132550599</v>
       </c>
       <c r="U40" t="n">
-        <v>18.96245366221342</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>150.0888768833843</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>129.1262418158231</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>148.3119918879776</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854698.4465300764</v>
+        <v>854698.4465300766</v>
       </c>
     </row>
     <row r="7">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049991</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="F2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417764</v>
       </c>
       <c r="H2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417769</v>
       </c>
       <c r="I2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417768</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417764</v>
       </c>
       <c r="L2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="M2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="N2" t="n">
-        <v>555914.5016417764</v>
+        <v>555914.5016417762</v>
       </c>
       <c r="O2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417768</v>
       </c>
       <c r="P2" t="n">
         <v>555914.5016417763</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709187</v>
@@ -26432,34 +26432,34 @@
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709185</v>
-      </c>
       <c r="K4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290304.3147653847</v>
+        <v>-290304.3147653848</v>
       </c>
       <c r="C6" t="n">
-        <v>299663.5644491597</v>
+        <v>299663.56444916</v>
       </c>
       <c r="D6" t="n">
-        <v>299663.5644491594</v>
+        <v>299663.5644491593</v>
       </c>
       <c r="E6" t="n">
-        <v>-290137.9935046936</v>
+        <v>-289533.2340926616</v>
       </c>
       <c r="F6" t="n">
-        <v>437239.4204887131</v>
+        <v>437844.1799007453</v>
       </c>
       <c r="G6" t="n">
-        <v>437239.4204887131</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="H6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.1799007456</v>
       </c>
       <c r="I6" t="n">
-        <v>437239.4204887131</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="J6" t="n">
-        <v>260816.20129612</v>
+        <v>261420.9607081524</v>
       </c>
       <c r="K6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.1799007451</v>
       </c>
       <c r="L6" t="n">
-        <v>437239.4204887131</v>
+        <v>437844.1799007453</v>
       </c>
       <c r="M6" t="n">
-        <v>307597.1056497682</v>
+        <v>308201.8650618003</v>
       </c>
       <c r="N6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.1799007449</v>
       </c>
       <c r="O6" t="n">
-        <v>437239.4204887132</v>
+        <v>437844.1799007455</v>
       </c>
       <c r="P6" t="n">
-        <v>437239.4204887129</v>
+        <v>437844.179900745</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26761,10 +26761,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>132.1503566669489</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>89.99676606907983</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>16.41204527430949</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>16.41204527430946</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.03474447720023</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>226.968995871239</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>55.56968306875818</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68962877639354</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32560,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33183,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33335,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35412,22 +35412,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>507.3053774831301</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
@@ -35655,22 +35655,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>568.5399380881473</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>311.4634816080612</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36123,22 +36123,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36208,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>684.463096775793</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359016</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>647.4093606453557</v>
+        <v>647.4093606453575</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>751.0723262417293</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>739.5540726950825</v>
       </c>
       <c r="P35" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>262.4358392395069</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37785,13 +37785,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>742.101636202175</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>766.6741794499112</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
